--- a/4-esqueleto/JuaristiAne-2018-11-26.xlsx
+++ b/4-esqueleto/JuaristiAne-2018-11-26.xlsx
@@ -942,7 +942,7 @@
   <dimension ref="B1:K40"/>
   <sheetViews>
     <sheetView tabSelected="1" topLeftCell="A7" workbookViewId="0">
-      <selection activeCell="G29" sqref="G29"/>
+      <selection activeCell="F24" sqref="F24"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultRowHeight="12" x14ac:dyDescent="0.15"/>
@@ -1253,7 +1253,7 @@
       </c>
       <c r="F20" s="33">
         <f t="shared" si="1"/>
-        <v>0.39333333333333331</v>
+        <v>0.99</v>
       </c>
       <c r="G20" s="33">
         <f t="shared" si="1"/>
@@ -1294,7 +1294,7 @@
         <v>1</v>
       </c>
       <c r="F22" s="4">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="G22" s="4">
         <v>1</v>
@@ -1314,7 +1314,7 @@
         <v>1</v>
       </c>
       <c r="F23" s="4">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="G23" s="5">
         <v>1</v>
@@ -1334,7 +1334,7 @@
         <v>3</v>
       </c>
       <c r="F24" s="3">
-        <v>1</v>
+        <v>3</v>
       </c>
       <c r="G24" s="3">
         <v>2</v>
@@ -1357,7 +1357,7 @@
       </c>
       <c r="F25" s="33">
         <f t="shared" si="2"/>
-        <v>0.40666666666666668</v>
+        <v>1</v>
       </c>
       <c r="G25" s="33">
         <f t="shared" si="2"/>
@@ -1378,7 +1378,7 @@
         <v>1</v>
       </c>
       <c r="F26" s="5">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="G26" s="5">
         <v>1</v>
@@ -1398,7 +1398,7 @@
         <v>3</v>
       </c>
       <c r="F27" s="4">
-        <v>1</v>
+        <v>3</v>
       </c>
       <c r="G27" s="4">
         <v>1</v>
